--- a/20241224_edge_point.xlsx
+++ b/20241224_edge_point.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>4 바닥 테두리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>cam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 위쪽 테두리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -557,7 +561,7 @@
         <v>915</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:R8" si="5">E6-E$3</f>
+        <f t="shared" ref="P6:P8" si="5">E6-E$3</f>
         <v>105</v>
       </c>
       <c r="Q6">
@@ -725,8 +729,302 @@
         <v>969</v>
       </c>
     </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>465</v>
+      </c>
+      <c r="C12">
+        <v>2225</v>
+      </c>
+      <c r="D12">
+        <v>465</v>
+      </c>
+      <c r="E12">
+        <v>2653</v>
+      </c>
+      <c r="F12">
+        <v>981</v>
+      </c>
+      <c r="G12">
+        <v>360</v>
+      </c>
+      <c r="H12">
+        <v>1633</v>
+      </c>
+      <c r="I12">
+        <v>2051</v>
+      </c>
+      <c r="J12">
+        <v>1633</v>
+      </c>
+      <c r="L12">
+        <f>A12-A$3</f>
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:U12" si="11">B12-B$3</f>
+        <v>465</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>1025</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="11"/>
+        <v>465</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>253</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="11"/>
+        <v>981</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>633</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="11"/>
+        <v>851</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="11"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>1061</v>
+      </c>
+      <c r="B13">
+        <v>465</v>
+      </c>
+      <c r="C13">
+        <v>1977</v>
+      </c>
+      <c r="D13">
+        <v>570</v>
+      </c>
+      <c r="E13">
+        <v>2661</v>
+      </c>
+      <c r="F13">
+        <v>253</v>
+      </c>
+      <c r="G13">
+        <v>149</v>
+      </c>
+      <c r="H13">
+        <v>1477</v>
+      </c>
+      <c r="I13">
+        <v>1577</v>
+      </c>
+      <c r="J13">
+        <v>1633</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L15" si="12">A13-A$3</f>
+        <v>1061</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="13">B13-B$3</f>
+        <v>465</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N15" si="14">C13-C$3</f>
+        <v>777</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O15" si="15">D13-D$3</f>
+        <v>570</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P15" si="16">E13-E$3</f>
+        <v>261</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q15" si="17">F13-F$3</f>
+        <v>253</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R15" si="18">G13-G$3</f>
+        <v>149</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S15" si="19">H13-H$3</f>
+        <v>477</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:T15" si="20">I13-I$3</f>
+        <v>377</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U15" si="21">J13-J$3</f>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>345</v>
+      </c>
+      <c r="B14">
+        <v>570</v>
+      </c>
+      <c r="C14">
+        <v>1253</v>
+      </c>
+      <c r="D14">
+        <v>465</v>
+      </c>
+      <c r="E14">
+        <v>3349</v>
+      </c>
+      <c r="F14">
+        <v>997</v>
+      </c>
+      <c r="G14">
+        <v>850</v>
+      </c>
+      <c r="H14">
+        <v>1633</v>
+      </c>
+      <c r="I14">
+        <v>2285</v>
+      </c>
+      <c r="J14">
+        <v>1477</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="12"/>
+        <v>345</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="13"/>
+        <v>570</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="15"/>
+        <v>465</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="16"/>
+        <v>949</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="17"/>
+        <v>997</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="18"/>
+        <v>850</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="19"/>
+        <v>633</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="20"/>
+        <v>1085</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="21"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>821</v>
+      </c>
+      <c r="B15">
+        <v>570</v>
+      </c>
+      <c r="C15">
+        <v>1500</v>
+      </c>
+      <c r="D15">
+        <v>570</v>
+      </c>
+      <c r="E15">
+        <v>3393</v>
+      </c>
+      <c r="F15">
+        <v>265</v>
+      </c>
+      <c r="G15">
+        <v>1057</v>
+      </c>
+      <c r="H15">
+        <v>1477</v>
+      </c>
+      <c r="I15">
+        <v>1349</v>
+      </c>
+      <c r="J15">
+        <v>1477</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>821</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="13"/>
+        <v>570</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="15"/>
+        <v>570</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="16"/>
+        <v>993</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="17"/>
+        <v>265</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="18"/>
+        <v>1057</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="19"/>
+        <v>477</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="20"/>
+        <v>149</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="21"/>
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>